--- a/table functions.xlsx
+++ b/table functions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\виталий\PycharmProjects\pythonProject\Год2\WEB\WITCHES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936F36AB-57D8-4006-BC00-6BE7037750B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0C3F62-10C9-4390-AC28-DE517CDB1D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="5328" windowWidth="7764" windowHeight="6312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Общие функции</t>
   </si>
@@ -48,22 +48,46 @@
     <t>Подвал</t>
   </si>
   <si>
-    <t>Полезные ссылки</t>
-  </si>
-  <si>
-    <t>Контакты</t>
-  </si>
-  <si>
-    <t>Магазины (кнопка)</t>
-  </si>
-  <si>
-    <t>Сыылка на бота</t>
-  </si>
-  <si>
     <t>Совместимость по зз</t>
   </si>
   <si>
     <t>Совместимость по имени</t>
+  </si>
+  <si>
+    <t>Места силы</t>
+  </si>
+  <si>
+    <t>Почта</t>
+  </si>
+  <si>
+    <t>Ссылка на бота</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Расклад от специалиста</t>
+  </si>
+  <si>
+    <t>Расклад от специалиста -15%</t>
+  </si>
+  <si>
+    <t>Бот</t>
+  </si>
+  <si>
+    <t>/start - все функции</t>
+  </si>
+  <si>
+    <t>/help - контакты</t>
+  </si>
+  <si>
+    <t>Гороскоп &amp; котик</t>
+  </si>
+  <si>
+    <t>Справочник карт</t>
+  </si>
+  <si>
+    <t>Контакты &amp; цены</t>
   </si>
 </sst>
 </file>
@@ -79,15 +103,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -111,36 +141,361 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -149,24 +504,120 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -449,128 +900,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J8"/>
+  <dimension ref="B1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="I2" s="1" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="I2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="28"/>
+      <c r="L2" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="28"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="I3" s="3" t="s">
+    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="32"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="I4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="L4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="20"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="5"/>
+      <c r="I5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="L5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="5"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="I4" s="5" t="s">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="6"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="5"/>
+      <c r="I6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="L6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="5"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="5"/>
+      <c r="I7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="I5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="6"/>
+      <c r="J7" s="17"/>
+      <c r="L7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="5"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+    <row r="8" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="12"/>
+      <c r="I8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="I6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="6"/>
+      <c r="J8" s="12"/>
+      <c r="L8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="8"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I4:J4"/>
+  <mergeCells count="23">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="I2:J3"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:G3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:G3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
